--- a/src/test/resources/Trip.xlsx
+++ b/src/test/resources/Trip.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="19">
   <si>
     <t>HotelName</t>
   </si>
@@ -473,7 +473,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>16</v>
